--- a/grading_criteria/Grading Template.xlsx
+++ b/grading_criteria/Grading Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding stuff\KTH\Ecommerce-Stockholm\grading_criteria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE234280-9E2A-4383-B175-926FE9379D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904FEFD4-A570-4276-8810-815F0D22953B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1411,8 +1411,8 @@
   </sheetPr>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2053,7 +2053,10 @@
     </row>
     <row r="59" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="23"/>
+      <c r="B59" s="23">
+        <f>SUM(B23:B52)</f>
+        <v>142</v>
+      </c>
       <c r="C59" s="6"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -2291,7 +2294,7 @@
       </c>
       <c r="B94" s="28">
         <f>SUM(B23:B90)</f>
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="C94" s="29" t="s">
         <v>33</v>
